--- a/testdata/FCfiles/qa/ManageBilling/Upload_Bills.xlsx
+++ b/testdata/FCfiles/qa/ManageBilling/Upload_Bills.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="95">
   <si>
     <t>Carrier Code</t>
   </si>
@@ -317,6 +317,15 @@
   </si>
   <si>
     <t>51526987+3</t>
+  </si>
+  <si>
+    <t>51530028</t>
+  </si>
+  <si>
+    <t>51530028+2</t>
+  </si>
+  <si>
+    <t>51530028+3</t>
   </si>
 </sst>
 </file>
@@ -438,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="101">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
@@ -456,6 +465,10 @@
     <xf applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -962,11 +975,11 @@
       <c r="B2" s="1">
         <v>44325</v>
       </c>
-      <c r="C2" s="94" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="93" t="s">
-        <v>89</v>
+      <c r="C2" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="97" t="s">
+        <v>92</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>63</v>
@@ -985,11 +998,11 @@
       <c r="B3" s="1">
         <v>44325</v>
       </c>
-      <c r="C3" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="95" t="s">
-        <v>89</v>
+      <c r="C3" s="100" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="99" t="s">
+        <v>92</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>64</v>

--- a/testdata/FCfiles/qa/ManageBilling/Upload_Bills.xlsx
+++ b/testdata/FCfiles/qa/ManageBilling/Upload_Bills.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="98">
   <si>
     <t>Carrier Code</t>
   </si>
@@ -326,6 +326,15 @@
   </si>
   <si>
     <t>51530028+3</t>
+  </si>
+  <si>
+    <t>51539217</t>
+  </si>
+  <si>
+    <t>51539217+2</t>
+  </si>
+  <si>
+    <t>51539217+3</t>
   </si>
 </sst>
 </file>
@@ -447,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="105">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
@@ -465,6 +474,10 @@
     <xf applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -975,11 +988,11 @@
       <c r="B2" s="1">
         <v>44325</v>
       </c>
-      <c r="C2" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="97" t="s">
-        <v>92</v>
+      <c r="C2" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="101" t="s">
+        <v>95</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>63</v>
@@ -998,11 +1011,11 @@
       <c r="B3" s="1">
         <v>44325</v>
       </c>
-      <c r="C3" s="100" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="99" t="s">
-        <v>92</v>
+      <c r="C3" s="104" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="103" t="s">
+        <v>95</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>64</v>

--- a/testdata/FCfiles/qa/ManageBilling/Upload_Bills.xlsx
+++ b/testdata/FCfiles/qa/ManageBilling/Upload_Bills.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="107">
   <si>
     <t>Carrier Code</t>
   </si>
@@ -335,6 +335,33 @@
   </si>
   <si>
     <t>51539217+3</t>
+  </si>
+  <si>
+    <t>51545585</t>
+  </si>
+  <si>
+    <t>51545585+2</t>
+  </si>
+  <si>
+    <t>51545585+3</t>
+  </si>
+  <si>
+    <t>51545647</t>
+  </si>
+  <si>
+    <t>51545647+2</t>
+  </si>
+  <si>
+    <t>51545647+3</t>
+  </si>
+  <si>
+    <t>51545664</t>
+  </si>
+  <si>
+    <t>51545664+2</t>
+  </si>
+  <si>
+    <t>51545664+3</t>
   </si>
 </sst>
 </file>
@@ -456,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="141">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
@@ -474,6 +501,42 @@
     <xf applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -988,11 +1051,11 @@
       <c r="B2" s="1">
         <v>44325</v>
       </c>
-      <c r="C2" s="102" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="101" t="s">
-        <v>95</v>
+      <c r="C2" s="138" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="137" t="s">
+        <v>104</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>63</v>
@@ -1011,11 +1074,11 @@
       <c r="B3" s="1">
         <v>44325</v>
       </c>
-      <c r="C3" s="104" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="103" t="s">
-        <v>95</v>
+      <c r="C3" s="140" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="139" t="s">
+        <v>104</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>64</v>

--- a/testdata/FCfiles/qa/ManageBilling/Upload_Bills.xlsx
+++ b/testdata/FCfiles/qa/ManageBilling/Upload_Bills.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="110">
   <si>
     <t>Carrier Code</t>
   </si>
@@ -362,6 +362,15 @@
   </si>
   <si>
     <t>51545664+3</t>
+  </si>
+  <si>
+    <t>51545933</t>
+  </si>
+  <si>
+    <t>51545933+2</t>
+  </si>
+  <si>
+    <t>51545933+3</t>
   </si>
 </sst>
 </file>
@@ -483,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="149">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
@@ -501,6 +510,14 @@
     <xf applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
@@ -1051,11 +1068,11 @@
       <c r="B2" s="1">
         <v>44325</v>
       </c>
-      <c r="C2" s="138" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="137" t="s">
-        <v>104</v>
+      <c r="C2" s="146" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="145" t="s">
+        <v>107</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>63</v>
@@ -1074,11 +1091,11 @@
       <c r="B3" s="1">
         <v>44325</v>
       </c>
-      <c r="C3" s="140" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="139" t="s">
-        <v>104</v>
+      <c r="C3" s="148" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="147" t="s">
+        <v>107</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>64</v>
